--- a/NformTester/NformTester/Keywordscripts/600.60.20.10_SNMPSettings.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.10_SNMPSettings.xlsx
@@ -5002,14 +5002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="59.625" customWidth="1"/>
@@ -6440,7 +6440,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>518</v>
@@ -6523,7 +6523,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>518</v>
@@ -6548,7 +6548,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>518</v>

--- a/NformTester/NformTester/Keywordscripts/600.60.20.10_SNMPSettings.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.10_SNMPSettings.xlsx
@@ -3842,10 +3842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3983,6 +3979,9 @@
   <si>
     <t>;SNMP Global Value Settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -5002,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5069,7 +5068,7 @@
         <v>766</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -5094,7 +5093,7 @@
         <v>767</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -5135,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5176,7 +5175,7 @@
         <v>852</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>824</v>
@@ -5195,7 +5194,7 @@
         <v>772</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -6024,7 +6023,7 @@
         <v>278</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>7</v>
@@ -6033,7 +6032,7 @@
         <v>820</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J35" s="7" t="b">
         <v>0</v>
@@ -6132,7 +6131,7 @@
         <v>278</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>7</v>
@@ -6141,7 +6140,7 @@
         <v>820</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J39" s="7" t="b">
         <v>1</v>
@@ -6288,7 +6287,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -6746,7 +6745,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>396</v>
@@ -6802,7 +6801,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>396</v>
@@ -6833,7 +6832,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>396</v>
@@ -6889,7 +6888,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>396</v>
@@ -6920,7 +6919,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>396</v>
@@ -6976,7 +6975,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>396</v>
@@ -7032,7 +7031,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>396</v>
@@ -7063,7 +7062,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>396</v>
@@ -7254,7 +7253,7 @@
         <v>56</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -7380,7 +7379,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>518</v>
@@ -7820,7 +7819,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -7841,10 +7840,10 @@
         <v>813</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>857</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>2</v>
@@ -7866,7 +7865,7 @@
         <v>813</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>83</v>
@@ -7891,7 +7890,7 @@
         <v>813</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>401</v>
@@ -7916,19 +7915,19 @@
         <v>813</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>466</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H109" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>861</v>
       </c>
       <c r="J109" s="13" t="b">
         <v>1</v>
@@ -7947,19 +7946,19 @@
         <v>813</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>467</v>
       </c>
       <c r="G110" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H110" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="I110" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>861</v>
       </c>
       <c r="J110" s="13" t="b">
         <v>0</v>
@@ -7978,22 +7977,22 @@
         <v>813</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>468</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J111" s="13" t="s">
         <v>862</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J111" s="13" t="s">
-        <v>863</v>
       </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -8009,22 +8008,22 @@
         <v>813</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>469</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H112" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J112" s="13" t="s">
         <v>862</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>863</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -8040,16 +8039,16 @@
         <v>813</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>470</v>
       </c>
       <c r="G113" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H113" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="3"/>
@@ -8067,16 +8066,16 @@
         <v>813</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G114" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="3"/>
@@ -8094,7 +8093,7 @@
         <v>813</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>471</v>
@@ -8119,7 +8118,7 @@
         <v>813</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>472</v>
@@ -8144,7 +8143,7 @@
         <v>813</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>476</v>
@@ -8153,7 +8152,7 @@
         <v>4</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="3"/>
@@ -8171,10 +8170,10 @@
         <v>813</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>2</v>
@@ -8196,10 +8195,10 @@
         <v>813</v>
       </c>
       <c r="E119" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>2</v>
@@ -8221,7 +8220,7 @@
         <v>813</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>83</v>
@@ -8246,7 +8245,7 @@
         <v>813</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>401</v>
@@ -8271,19 +8270,19 @@
         <v>813</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>466</v>
       </c>
       <c r="G122" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J122" s="13" t="b">
         <v>1</v>
@@ -8302,19 +8301,19 @@
         <v>813</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>472</v>
       </c>
       <c r="G123" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J123" s="13" t="b">
         <v>1</v>
@@ -8333,22 +8332,22 @@
         <v>813</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>468</v>
       </c>
       <c r="G124" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="J124" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="J124" s="13" t="s">
-        <v>874</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -8364,22 +8363,22 @@
         <v>813</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>469</v>
       </c>
       <c r="G125" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="J125" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="J125" s="13" t="s">
-        <v>874</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -8395,22 +8394,22 @@
         <v>813</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>470</v>
       </c>
       <c r="G126" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H126" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>872</v>
-      </c>
       <c r="J126" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -8426,22 +8425,22 @@
         <v>813</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G127" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H127" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>872</v>
-      </c>
       <c r="J127" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -8457,16 +8456,16 @@
         <v>813</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>360</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="3"/>
@@ -8484,16 +8483,16 @@
         <v>813</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>480</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="3"/>
@@ -8511,7 +8510,7 @@
         <v>813</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>472</v>
@@ -8536,16 +8535,16 @@
         <v>813</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>476</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="3"/>
@@ -8563,10 +8562,10 @@
         <v>813</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>2</v>
@@ -8588,10 +8587,10 @@
         <v>813</v>
       </c>
       <c r="E133" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>2</v>
@@ -8613,7 +8612,7 @@
         <v>813</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>83</v>
@@ -8638,7 +8637,7 @@
         <v>813</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>401</v>
@@ -8663,19 +8662,19 @@
         <v>813</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>466</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I136" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J136" s="13" t="b">
         <v>1</v>
@@ -8694,19 +8693,19 @@
         <v>813</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>471</v>
       </c>
       <c r="G137" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J137" s="13" t="b">
         <v>0</v>
@@ -8725,22 +8724,22 @@
         <v>813</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>468</v>
       </c>
       <c r="G138" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="J138" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="J138" s="13" t="s">
-        <v>874</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -8756,22 +8755,22 @@
         <v>813</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>469</v>
       </c>
       <c r="G139" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="J139" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="J139" s="13" t="s">
-        <v>874</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -8787,22 +8786,22 @@
         <v>813</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>470</v>
       </c>
       <c r="G140" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H140" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>872</v>
-      </c>
       <c r="J140" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -8818,22 +8817,22 @@
         <v>813</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G141" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H141" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>872</v>
-      </c>
       <c r="J141" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -8849,19 +8848,19 @@
         <v>813</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>360</v>
       </c>
       <c r="G142" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J142" s="7">
         <v>2000</v>
@@ -8880,19 +8879,19 @@
         <v>813</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>480</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J143" s="7">
         <v>4</v>
@@ -8911,19 +8910,19 @@
         <v>813</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>472</v>
       </c>
       <c r="G144" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J144" s="13" t="b">
         <v>1</v>
@@ -8942,19 +8941,19 @@
         <v>813</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>476</v>
       </c>
       <c r="G145" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J145" s="7">
         <v>4000</v>
@@ -8973,10 +8972,10 @@
         <v>813</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>2</v>
@@ -8998,10 +8997,10 @@
         <v>813</v>
       </c>
       <c r="E147" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>2</v>
@@ -9023,7 +9022,7 @@
         <v>813</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>83</v>
@@ -9048,7 +9047,7 @@
         <v>813</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>401</v>
@@ -9073,7 +9072,7 @@
         <v>813</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>466</v>
@@ -9098,7 +9097,7 @@
         <v>813</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>471</v>
@@ -9123,10 +9122,10 @@
         <v>813</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>2</v>
@@ -9148,10 +9147,10 @@
         <v>813</v>
       </c>
       <c r="E153" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>2</v>
@@ -9173,7 +9172,7 @@
         <v>813</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>83</v>
@@ -9198,7 +9197,7 @@
         <v>813</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>401</v>
@@ -9223,7 +9222,7 @@
         <v>813</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>472</v>
@@ -9248,16 +9247,16 @@
         <v>813</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>476</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="3"/>
@@ -9275,16 +9274,16 @@
         <v>813</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>470</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="3"/>
@@ -9302,16 +9301,16 @@
         <v>813</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="3"/>
@@ -9329,10 +9328,10 @@
         <v>813</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>2</v>
@@ -9354,10 +9353,10 @@
         <v>813</v>
       </c>
       <c r="E161" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>2</v>
@@ -9379,7 +9378,7 @@
         <v>813</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>83</v>
@@ -9404,7 +9403,7 @@
         <v>813</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>401</v>
@@ -9429,7 +9428,7 @@
         <v>813</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>471</v>
@@ -9454,19 +9453,19 @@
         <v>813</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>471</v>
       </c>
       <c r="G165" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="J165" s="13" t="b">
         <v>1</v>
@@ -9485,16 +9484,16 @@
         <v>813</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>470</v>
       </c>
       <c r="G166" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H166" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="3"/>
@@ -9512,16 +9511,16 @@
         <v>813</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G167" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="3"/>
@@ -9539,10 +9538,10 @@
         <v>813</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>2</v>
@@ -9725,7 +9724,7 @@
         <v>175</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>19</v>
@@ -9749,7 +9748,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>19</v>
@@ -9773,7 +9772,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>241</v>
@@ -9785,7 +9784,7 @@
         <v>56</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -9799,7 +9798,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>241</v>
@@ -31787,7 +31786,7 @@
         <v>766</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31795,7 +31794,7 @@
         <v>767</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -31819,7 +31818,7 @@
         <v>772</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:2">
